--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="11" t="n">
-        <v>469.482</v>
+        <v>889.514</v>
       </c>
     </row>
     <row r="29" ht="18" customFormat="1" customHeight="1" s="7">
@@ -864,7 +864,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="11" t="n">
-        <v>536.554</v>
+        <v>1016.592</v>
       </c>
     </row>
     <row r="30" ht="18" customFormat="1" customHeight="1" s="7">
@@ -880,7 +880,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="11" t="n">
-        <v>613.997</v>
+        <v>1163.322</v>
       </c>
     </row>
     <row r="31" ht="18" customFormat="1" customHeight="1" s="7">
@@ -896,7 +896,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="11" t="n">
-        <v>718.271</v>
+        <v>1360.888</v>
       </c>
     </row>
     <row r="32" ht="18" customFormat="1" customHeight="1" s="7">
@@ -912,7 +912,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="11" t="n">
-        <v>785.847</v>
+        <v>1488.922</v>
       </c>
     </row>
     <row r="33" ht="18" customFormat="1" customHeight="1" s="7">
@@ -928,7 +928,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="11" t="n">
-        <v>936.438</v>
+        <v>1774.242</v>
       </c>
     </row>
     <row r="34" ht="18" customFormat="1" customHeight="1" s="7">
@@ -944,7 +944,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="11" t="n">
-        <v>959.213</v>
+        <v>1817.394</v>
       </c>
     </row>
     <row r="35" ht="18" customFormat="1" customHeight="1" s="7">
@@ -960,7 +960,7 @@
       </c>
       <c r="C35" s="20" t="n"/>
       <c r="D35" s="11" t="n">
-        <v>1070.066</v>
+        <v>2027.423</v>
       </c>
     </row>
     <row r="36" ht="18" customFormat="1" customHeight="1" s="7">
@@ -976,7 +976,7 @@
       </c>
       <c r="C36" s="20" t="n"/>
       <c r="D36" s="11" t="n">
-        <v>1295.822</v>
+        <v>2455.156</v>
       </c>
     </row>
     <row r="37" ht="18" customFormat="1" customHeight="1" s="7">
@@ -992,7 +992,7 @@
       </c>
       <c r="C37" s="20" t="n"/>
       <c r="D37" s="11" t="n">
-        <v>1462.864</v>
+        <v>2771.646</v>
       </c>
     </row>
     <row r="38" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C38" s="20" t="n"/>
       <c r="D38" s="11" t="n">
-        <v>1708.361</v>
+        <v>3236.783</v>
       </c>
     </row>
     <row r="39" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C39" s="20" t="n"/>
       <c r="D39" s="11" t="n">
-        <v>1885.526</v>
+        <v>3572.451</v>
       </c>
     </row>
     <row r="40" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C40" s="20" t="n"/>
       <c r="D40" s="11" t="n">
-        <v>2050.034</v>
+        <v>3884.139</v>
       </c>
     </row>
     <row r="41" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C41" s="20" t="n"/>
       <c r="D41" s="11" t="n">
-        <v>2303.124</v>
+        <v>4363.662</v>
       </c>
     </row>
     <row r="42" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C42" s="20" t="n"/>
       <c r="D42" s="11" t="n">
-        <v>2457.509</v>
+        <v>4656.172</v>
       </c>
     </row>
     <row r="43" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C43" s="20" t="n"/>
       <c r="D43" s="11" t="n">
-        <v>2680.229</v>
+        <v>5078.153</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="13"/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C49" s="20" t="n"/>
       <c r="D49" s="11" t="n">
-        <v>1505.89</v>
+        <v>2853.166</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" s="13">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C50" s="20" t="n"/>
       <c r="D50" s="11" t="n">
-        <v>1513.482</v>
+        <v>2867.551</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" s="13">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C51" s="20" t="n"/>
       <c r="D51" s="11" t="n">
-        <v>1857.684</v>
+        <v>3519.701</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" s="13">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C52" s="20" t="n"/>
       <c r="D52" s="11" t="n">
-        <v>1986.763</v>
+        <v>3764.262</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="13">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C53" s="20" t="n"/>
       <c r="D53" s="11" t="n">
-        <v>2116.086</v>
+        <v>4009.287</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="13">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C54" s="20" t="n"/>
       <c r="D54" s="11" t="n">
-        <v>2381.58</v>
+        <v>4512.31</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="13">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C55" s="20" t="n"/>
       <c r="D55" s="11" t="n">
-        <v>2771.34</v>
+        <v>5250.776</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="13">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C56" s="20" t="n"/>
       <c r="D56" s="11" t="n">
-        <v>3102.889</v>
+        <v>5878.954</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="13">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C57" s="20" t="n"/>
       <c r="D57" s="11" t="n">
-        <v>3548.327</v>
+        <v>6722.914</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="13">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C58" s="20" t="n"/>
       <c r="D58" s="11" t="n">
-        <v>3998.828</v>
+        <v>7576.465</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="13">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C59" s="20" t="n"/>
       <c r="D59" s="11" t="n">
-        <v>4340.497</v>
+        <v>8223.814</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="13">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C60" s="20" t="n"/>
       <c r="D60" s="11" t="n">
-        <v>4884.644</v>
+        <v>9254.794</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="13">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C61" s="20" t="n"/>
       <c r="D61" s="11" t="n">
-        <v>5388.291</v>
+        <v>10209.04</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="13">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C62" s="20" t="n"/>
       <c r="D62" s="11" t="n">
-        <v>5707.184</v>
+        <v>10813.235</v>
       </c>
     </row>
     <row r="65" ht="33.75" customHeight="1" s="13">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C68" s="20" t="n"/>
       <c r="D68" s="11" t="n">
-        <v>607.671</v>
+        <v>1151.335</v>
       </c>
     </row>
     <row r="69" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C69" s="20" t="n"/>
       <c r="D69" s="11" t="n">
-        <v>625.134</v>
+        <v>1184.423</v>
       </c>
     </row>
     <row r="70" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C70" s="20" t="n"/>
       <c r="D70" s="11" t="n">
-        <v>707.388</v>
+        <v>1340.267</v>
       </c>
     </row>
     <row r="71" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C71" s="20" t="n"/>
       <c r="D71" s="11" t="n">
-        <v>824.064</v>
+        <v>1561.329</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" s="13">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C72" s="20" t="n"/>
       <c r="D72" s="11" t="n">
-        <v>953.141</v>
+        <v>1805.888</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" s="13">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C73" s="20" t="n"/>
       <c r="D73" s="11" t="n">
-        <v>1104.993</v>
+        <v>2093.598</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="1" s="13">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C74" s="20" t="n"/>
       <c r="D74" s="11" t="n">
-        <v>1237.612</v>
+        <v>2344.868</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="13">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C75" s="20" t="n"/>
       <c r="D75" s="11" t="n">
-        <v>1311.008</v>
+        <v>2483.928</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="13">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C76" s="20" t="n"/>
       <c r="D76" s="11" t="n">
-        <v>1543.85</v>
+        <v>2925.088</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="13">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C77" s="20" t="n"/>
       <c r="D77" s="11" t="n">
-        <v>1789.351</v>
+        <v>3390.232</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1" s="13">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C78" s="20" t="n"/>
       <c r="D78" s="11" t="n">
-        <v>1993.592</v>
+        <v>3777.201</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="13">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C79" s="20" t="n"/>
       <c r="D79" s="11" t="n">
-        <v>2234.28</v>
+        <v>4233.225</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="13">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C80" s="20" t="n"/>
       <c r="D80" s="11" t="n">
-        <v>2492.942</v>
+        <v>4723.304</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" s="13">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C81" s="20" t="n"/>
       <c r="D81" s="11" t="n">
-        <v>2640.49</v>
+        <v>5002.86</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" s="13">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C82" s="20" t="n"/>
       <c r="D82" s="11" t="n">
-        <v>2862.453</v>
+        <v>5423.408</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" s="13">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C83" s="20" t="n"/>
       <c r="D83" s="11" t="n">
-        <v>3125.665</v>
+        <v>5922.106</v>
       </c>
     </row>
     <row r="86" ht="33.75" customHeight="1" s="13">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C89" s="20" t="n"/>
       <c r="D89" s="11" t="n">
-        <v>259.878</v>
+        <v>492.383</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" s="13">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C90" s="20" t="n"/>
       <c r="D90" s="11" t="n">
-        <v>312.062</v>
+        <v>591.254</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="13">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C91" s="20" t="n"/>
       <c r="D91" s="11" t="n">
-        <v>337.37</v>
+        <v>639.205</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" s="13">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C92" s="20" t="n"/>
       <c r="D92" s="11" t="n">
-        <v>418.61</v>
+        <v>793.128</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" s="13">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="C93" s="20" t="n"/>
       <c r="D93" s="11" t="n">
-        <v>456.827</v>
+        <v>865.538</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" s="13">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C94" s="20" t="n"/>
       <c r="D94" s="11" t="n">
-        <v>492.008</v>
+        <v>932.194</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" s="13">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C95" s="20" t="n"/>
       <c r="D95" s="11" t="n">
-        <v>539.842</v>
+        <v>1022.822</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" s="13">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C96" s="20" t="n"/>
       <c r="D96" s="11" t="n">
-        <v>688.913</v>
+        <v>1305.265</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1" s="13">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C97" s="20" t="n"/>
       <c r="D97" s="11" t="n">
-        <v>749.146</v>
+        <v>1419.386</v>
       </c>
     </row>
     <row r="98" ht="19.5" customHeight="1" s="13">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C98" s="20" t="n"/>
       <c r="D98" s="11" t="n">
-        <v>878.223</v>
+        <v>1663.943</v>
       </c>
     </row>
     <row r="99" ht="17.25" customHeight="1" s="13">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C99" s="20" t="n"/>
       <c r="D99" s="11" t="n">
-        <v>992.114</v>
+        <v>1879.729</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="1" s="13">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C100" s="20" t="n"/>
       <c r="D100" s="11" t="n">
-        <v>1068.042</v>
+        <v>2023.588</v>
       </c>
     </row>
     <row r="103" ht="33.75" customHeight="1" s="13">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C106" s="20" t="n"/>
       <c r="D106" s="11" t="n">
-        <v>2406.888</v>
+        <v>4560.261</v>
       </c>
     </row>
     <row r="107" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C107" s="20" t="n"/>
       <c r="D107" s="11" t="n">
-        <v>2558.744</v>
+        <v>4847.978</v>
       </c>
     </row>
     <row r="108" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C108" s="20" t="n"/>
       <c r="D108" s="11" t="n">
-        <v>2708.068</v>
+        <v>5130.898</v>
       </c>
     </row>
     <row r="109" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C109" s="20" t="n"/>
       <c r="D109" s="11" t="n">
-        <v>2961.16</v>
+        <v>5610.424</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" s="13">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C110" s="20" t="n"/>
       <c r="D110" s="11" t="n">
-        <v>2978.875</v>
+        <v>5643.988</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" s="13">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C111" s="20" t="n"/>
       <c r="D111" s="11" t="n">
-        <v>3510.364</v>
+        <v>6650.984</v>
       </c>
     </row>
     <row r="112" ht="18" customHeight="1" s="13">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C112" s="20" t="n"/>
       <c r="D112" s="11" t="n">
-        <v>4155.742</v>
+        <v>7873.763</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="1" s="13">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C113" s="20" t="n"/>
       <c r="D113" s="11" t="n">
-        <v>4606.245</v>
+        <v>8727.319</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1" s="13">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C114" s="20" t="n"/>
       <c r="D114" s="11" t="n">
-        <v>5036.501</v>
+        <v>9542.513000000001</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" s="13">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C115" s="20" t="n"/>
       <c r="D115" s="11" t="n">
-        <v>5560.397</v>
+        <v>10535.123</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" s="13">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C116" s="20" t="n"/>
       <c r="D116" s="11" t="n">
-        <v>6226.021</v>
+        <v>11796.261</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" s="13">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C117" s="20" t="n"/>
       <c r="D117" s="11" t="n">
-        <v>6577.82</v>
+        <v>12462.806</v>
       </c>
     </row>
     <row r="118" ht="19.5" customHeight="1" s="13">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C118" s="20" t="n"/>
       <c r="D118" s="11" t="n">
-        <v>7339.619</v>
+        <v>13906.164</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" s="13">
@@ -2094,89 +2094,89 @@
       </c>
       <c r="C119" s="20" t="n"/>
       <c r="D119" s="11" t="n">
-        <v>7782.528</v>
+        <v>14745.332</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -848,7 +848,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="11" t="n">
-        <v>889.514</v>
+        <v>469.482</v>
       </c>
     </row>
     <row r="29" ht="18" customFormat="1" customHeight="1" s="7">
@@ -864,7 +864,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="11" t="n">
-        <v>1016.592</v>
+        <v>536.554</v>
       </c>
     </row>
     <row r="30" ht="18" customFormat="1" customHeight="1" s="7">
@@ -880,7 +880,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="11" t="n">
-        <v>1163.322</v>
+        <v>613.997</v>
       </c>
     </row>
     <row r="31" ht="18" customFormat="1" customHeight="1" s="7">
@@ -896,7 +896,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="11" t="n">
-        <v>1360.888</v>
+        <v>718.271</v>
       </c>
     </row>
     <row r="32" ht="18" customFormat="1" customHeight="1" s="7">
@@ -912,7 +912,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="11" t="n">
-        <v>1488.922</v>
+        <v>785.847</v>
       </c>
     </row>
     <row r="33" ht="18" customFormat="1" customHeight="1" s="7">
@@ -928,7 +928,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="11" t="n">
-        <v>1774.242</v>
+        <v>936.438</v>
       </c>
     </row>
     <row r="34" ht="18" customFormat="1" customHeight="1" s="7">
@@ -944,7 +944,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="11" t="n">
-        <v>1817.394</v>
+        <v>959.213</v>
       </c>
     </row>
     <row r="35" ht="18" customFormat="1" customHeight="1" s="7">
@@ -960,7 +960,7 @@
       </c>
       <c r="C35" s="20" t="n"/>
       <c r="D35" s="11" t="n">
-        <v>2027.423</v>
+        <v>1070.066</v>
       </c>
     </row>
     <row r="36" ht="18" customFormat="1" customHeight="1" s="7">
@@ -976,7 +976,7 @@
       </c>
       <c r="C36" s="20" t="n"/>
       <c r="D36" s="11" t="n">
-        <v>2455.156</v>
+        <v>1295.822</v>
       </c>
     </row>
     <row r="37" ht="18" customFormat="1" customHeight="1" s="7">
@@ -992,7 +992,7 @@
       </c>
       <c r="C37" s="20" t="n"/>
       <c r="D37" s="11" t="n">
-        <v>2771.646</v>
+        <v>1462.864</v>
       </c>
     </row>
     <row r="38" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C38" s="20" t="n"/>
       <c r="D38" s="11" t="n">
-        <v>3236.783</v>
+        <v>1708.361</v>
       </c>
     </row>
     <row r="39" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C39" s="20" t="n"/>
       <c r="D39" s="11" t="n">
-        <v>3572.451</v>
+        <v>1885.526</v>
       </c>
     </row>
     <row r="40" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C40" s="20" t="n"/>
       <c r="D40" s="11" t="n">
-        <v>3884.139</v>
+        <v>2050.034</v>
       </c>
     </row>
     <row r="41" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C41" s="20" t="n"/>
       <c r="D41" s="11" t="n">
-        <v>4363.662</v>
+        <v>2303.124</v>
       </c>
     </row>
     <row r="42" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C42" s="20" t="n"/>
       <c r="D42" s="11" t="n">
-        <v>4656.172</v>
+        <v>2457.509</v>
       </c>
     </row>
     <row r="43" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C43" s="20" t="n"/>
       <c r="D43" s="11" t="n">
-        <v>5078.153</v>
+        <v>2680.229</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="13"/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C49" s="20" t="n"/>
       <c r="D49" s="11" t="n">
-        <v>2853.166</v>
+        <v>1505.89</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" s="13">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C50" s="20" t="n"/>
       <c r="D50" s="11" t="n">
-        <v>2867.551</v>
+        <v>1513.482</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" s="13">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C51" s="20" t="n"/>
       <c r="D51" s="11" t="n">
-        <v>3519.701</v>
+        <v>1857.684</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" s="13">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C52" s="20" t="n"/>
       <c r="D52" s="11" t="n">
-        <v>3764.262</v>
+        <v>1986.763</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="13">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C53" s="20" t="n"/>
       <c r="D53" s="11" t="n">
-        <v>4009.287</v>
+        <v>2116.086</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="13">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C54" s="20" t="n"/>
       <c r="D54" s="11" t="n">
-        <v>4512.31</v>
+        <v>2381.58</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="13">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C55" s="20" t="n"/>
       <c r="D55" s="11" t="n">
-        <v>5250.776</v>
+        <v>2771.34</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="13">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C56" s="20" t="n"/>
       <c r="D56" s="11" t="n">
-        <v>5878.954</v>
+        <v>3102.889</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="13">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C57" s="20" t="n"/>
       <c r="D57" s="11" t="n">
-        <v>6722.914</v>
+        <v>3548.327</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="13">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C58" s="20" t="n"/>
       <c r="D58" s="11" t="n">
-        <v>7576.465</v>
+        <v>3998.828</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="13">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C59" s="20" t="n"/>
       <c r="D59" s="11" t="n">
-        <v>8223.814</v>
+        <v>4340.497</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="13">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C60" s="20" t="n"/>
       <c r="D60" s="11" t="n">
-        <v>9254.794</v>
+        <v>4884.644</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="13">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C61" s="20" t="n"/>
       <c r="D61" s="11" t="n">
-        <v>10209.04</v>
+        <v>5388.291</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="13">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C62" s="20" t="n"/>
       <c r="D62" s="11" t="n">
-        <v>10813.235</v>
+        <v>5707.184</v>
       </c>
     </row>
     <row r="65" ht="33.75" customHeight="1" s="13">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C68" s="20" t="n"/>
       <c r="D68" s="11" t="n">
-        <v>1151.335</v>
+        <v>607.671</v>
       </c>
     </row>
     <row r="69" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C69" s="20" t="n"/>
       <c r="D69" s="11" t="n">
-        <v>1184.423</v>
+        <v>625.134</v>
       </c>
     </row>
     <row r="70" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C70" s="20" t="n"/>
       <c r="D70" s="11" t="n">
-        <v>1340.267</v>
+        <v>707.388</v>
       </c>
     </row>
     <row r="71" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C71" s="20" t="n"/>
       <c r="D71" s="11" t="n">
-        <v>1561.329</v>
+        <v>824.064</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" s="13">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C72" s="20" t="n"/>
       <c r="D72" s="11" t="n">
-        <v>1805.888</v>
+        <v>953.141</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" s="13">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C73" s="20" t="n"/>
       <c r="D73" s="11" t="n">
-        <v>2093.598</v>
+        <v>1104.993</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="1" s="13">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C74" s="20" t="n"/>
       <c r="D74" s="11" t="n">
-        <v>2344.868</v>
+        <v>1237.612</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="13">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C75" s="20" t="n"/>
       <c r="D75" s="11" t="n">
-        <v>2483.928</v>
+        <v>1311.008</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="13">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C76" s="20" t="n"/>
       <c r="D76" s="11" t="n">
-        <v>2925.088</v>
+        <v>1543.85</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="13">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C77" s="20" t="n"/>
       <c r="D77" s="11" t="n">
-        <v>3390.232</v>
+        <v>1789.351</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1" s="13">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C78" s="20" t="n"/>
       <c r="D78" s="11" t="n">
-        <v>3777.201</v>
+        <v>1993.592</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="13">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C79" s="20" t="n"/>
       <c r="D79" s="11" t="n">
-        <v>4233.225</v>
+        <v>2234.28</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="13">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C80" s="20" t="n"/>
       <c r="D80" s="11" t="n">
-        <v>4723.304</v>
+        <v>2492.942</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" s="13">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C81" s="20" t="n"/>
       <c r="D81" s="11" t="n">
-        <v>5002.86</v>
+        <v>2640.49</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" s="13">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C82" s="20" t="n"/>
       <c r="D82" s="11" t="n">
-        <v>5423.408</v>
+        <v>2862.453</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" s="13">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C83" s="20" t="n"/>
       <c r="D83" s="11" t="n">
-        <v>5922.106</v>
+        <v>3125.665</v>
       </c>
     </row>
     <row r="86" ht="33.75" customHeight="1" s="13">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C89" s="20" t="n"/>
       <c r="D89" s="11" t="n">
-        <v>492.383</v>
+        <v>259.878</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" s="13">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C90" s="20" t="n"/>
       <c r="D90" s="11" t="n">
-        <v>591.254</v>
+        <v>312.062</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="13">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C91" s="20" t="n"/>
       <c r="D91" s="11" t="n">
-        <v>639.205</v>
+        <v>337.37</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" s="13">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C92" s="20" t="n"/>
       <c r="D92" s="11" t="n">
-        <v>793.128</v>
+        <v>418.61</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" s="13">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="C93" s="20" t="n"/>
       <c r="D93" s="11" t="n">
-        <v>865.538</v>
+        <v>456.827</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" s="13">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C94" s="20" t="n"/>
       <c r="D94" s="11" t="n">
-        <v>932.194</v>
+        <v>492.008</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" s="13">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C95" s="20" t="n"/>
       <c r="D95" s="11" t="n">
-        <v>1022.822</v>
+        <v>539.842</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" s="13">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C96" s="20" t="n"/>
       <c r="D96" s="11" t="n">
-        <v>1305.265</v>
+        <v>688.913</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1" s="13">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C97" s="20" t="n"/>
       <c r="D97" s="11" t="n">
-        <v>1419.386</v>
+        <v>749.146</v>
       </c>
     </row>
     <row r="98" ht="19.5" customHeight="1" s="13">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C98" s="20" t="n"/>
       <c r="D98" s="11" t="n">
-        <v>1663.943</v>
+        <v>878.223</v>
       </c>
     </row>
     <row r="99" ht="17.25" customHeight="1" s="13">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C99" s="20" t="n"/>
       <c r="D99" s="11" t="n">
-        <v>1879.729</v>
+        <v>992.114</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="1" s="13">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C100" s="20" t="n"/>
       <c r="D100" s="11" t="n">
-        <v>2023.588</v>
+        <v>1068.042</v>
       </c>
     </row>
     <row r="103" ht="33.75" customHeight="1" s="13">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C106" s="20" t="n"/>
       <c r="D106" s="11" t="n">
-        <v>4560.261</v>
+        <v>2406.888</v>
       </c>
     </row>
     <row r="107" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C107" s="20" t="n"/>
       <c r="D107" s="11" t="n">
-        <v>4847.978</v>
+        <v>2558.744</v>
       </c>
     </row>
     <row r="108" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C108" s="20" t="n"/>
       <c r="D108" s="11" t="n">
-        <v>5130.898</v>
+        <v>2708.068</v>
       </c>
     </row>
     <row r="109" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C109" s="20" t="n"/>
       <c r="D109" s="11" t="n">
-        <v>5610.424</v>
+        <v>2961.16</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" s="13">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C110" s="20" t="n"/>
       <c r="D110" s="11" t="n">
-        <v>5643.988</v>
+        <v>2978.875</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" s="13">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C111" s="20" t="n"/>
       <c r="D111" s="11" t="n">
-        <v>6650.984</v>
+        <v>3510.364</v>
       </c>
     </row>
     <row r="112" ht="18" customHeight="1" s="13">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C112" s="20" t="n"/>
       <c r="D112" s="11" t="n">
-        <v>7873.763</v>
+        <v>4155.742</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="1" s="13">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C113" s="20" t="n"/>
       <c r="D113" s="11" t="n">
-        <v>8727.319</v>
+        <v>4606.245</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1" s="13">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C114" s="20" t="n"/>
       <c r="D114" s="11" t="n">
-        <v>9542.513000000001</v>
+        <v>5036.501</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" s="13">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C115" s="20" t="n"/>
       <c r="D115" s="11" t="n">
-        <v>10535.123</v>
+        <v>5560.397</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" s="13">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C116" s="20" t="n"/>
       <c r="D116" s="11" t="n">
-        <v>11796.261</v>
+        <v>6226.021</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" s="13">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C117" s="20" t="n"/>
       <c r="D117" s="11" t="n">
-        <v>12462.806</v>
+        <v>6577.82</v>
       </c>
     </row>
     <row r="118" ht="19.5" customHeight="1" s="13">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C118" s="20" t="n"/>
       <c r="D118" s="11" t="n">
-        <v>13906.164</v>
+        <v>7339.619</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" s="13">
@@ -2094,89 +2094,89 @@
       </c>
       <c r="C119" s="20" t="n"/>
       <c r="D119" s="11" t="n">
-        <v>14745.332</v>
+        <v>7782.528</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
     <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B95:C95"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B97:C97"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -2099,84 +2099,84 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -2099,84 +2099,84 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
     <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B95:C95"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B97:C97"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -2099,84 +2099,84 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TANQUE.xlsx
+++ b/server/LISTAS/ma/TANQUE.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -848,7 +848,7 @@
       </c>
       <c r="C28" s="20" t="n"/>
       <c r="D28" s="11" t="n">
-        <v>469.482</v>
+        <v>935</v>
       </c>
     </row>
     <row r="29" ht="18" customFormat="1" customHeight="1" s="7">
@@ -864,7 +864,7 @@
       </c>
       <c r="C29" s="20" t="n"/>
       <c r="D29" s="11" t="n">
-        <v>536.554</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" ht="18" customFormat="1" customHeight="1" s="7">
@@ -880,7 +880,7 @@
       </c>
       <c r="C30" s="20" t="n"/>
       <c r="D30" s="11" t="n">
-        <v>613.997</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="31" ht="18" customFormat="1" customHeight="1" s="7">
@@ -896,7 +896,7 @@
       </c>
       <c r="C31" s="20" t="n"/>
       <c r="D31" s="11" t="n">
-        <v>718.271</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="32" ht="18" customFormat="1" customHeight="1" s="7">
@@ -912,7 +912,7 @@
       </c>
       <c r="C32" s="20" t="n"/>
       <c r="D32" s="11" t="n">
-        <v>785.847</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="33" ht="18" customFormat="1" customHeight="1" s="7">
@@ -928,7 +928,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="11" t="n">
-        <v>936.438</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="34" ht="18" customFormat="1" customHeight="1" s="7">
@@ -944,7 +944,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="11" t="n">
-        <v>959.213</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="35" ht="18" customFormat="1" customHeight="1" s="7">
@@ -960,7 +960,7 @@
       </c>
       <c r="C35" s="20" t="n"/>
       <c r="D35" s="11" t="n">
-        <v>1070.066</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="36" ht="18" customFormat="1" customHeight="1" s="7">
@@ -976,7 +976,7 @@
       </c>
       <c r="C36" s="20" t="n"/>
       <c r="D36" s="11" t="n">
-        <v>1295.822</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="37" ht="18" customFormat="1" customHeight="1" s="7">
@@ -992,7 +992,7 @@
       </c>
       <c r="C37" s="20" t="n"/>
       <c r="D37" s="11" t="n">
-        <v>1462.864</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="38" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C38" s="20" t="n"/>
       <c r="D38" s="11" t="n">
-        <v>1708.361</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="39" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C39" s="20" t="n"/>
       <c r="D39" s="11" t="n">
-        <v>1885.526</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="40" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C40" s="20" t="n"/>
       <c r="D40" s="11" t="n">
-        <v>2050.034</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="41" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C41" s="20" t="n"/>
       <c r="D41" s="11" t="n">
-        <v>2303.124</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="42" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C42" s="20" t="n"/>
       <c r="D42" s="11" t="n">
-        <v>2457.509</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="43" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C43" s="20" t="n"/>
       <c r="D43" s="11" t="n">
-        <v>2680.229</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="13"/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C49" s="20" t="n"/>
       <c r="D49" s="11" t="n">
-        <v>1505.89</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" s="13">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C50" s="20" t="n"/>
       <c r="D50" s="11" t="n">
-        <v>1513.482</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" s="13">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C51" s="20" t="n"/>
       <c r="D51" s="11" t="n">
-        <v>1857.684</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" s="13">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C52" s="20" t="n"/>
       <c r="D52" s="11" t="n">
-        <v>1986.763</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="13">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C53" s="20" t="n"/>
       <c r="D53" s="11" t="n">
-        <v>2116.086</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="13">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C54" s="20" t="n"/>
       <c r="D54" s="11" t="n">
-        <v>2381.58</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="13">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C55" s="20" t="n"/>
       <c r="D55" s="11" t="n">
-        <v>2771.34</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="13">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C56" s="20" t="n"/>
       <c r="D56" s="11" t="n">
-        <v>3102.889</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="13">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C57" s="20" t="n"/>
       <c r="D57" s="11" t="n">
-        <v>3548.327</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="13">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C58" s="20" t="n"/>
       <c r="D58" s="11" t="n">
-        <v>3998.828</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="13">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C59" s="20" t="n"/>
       <c r="D59" s="11" t="n">
-        <v>4340.497</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="13">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C60" s="20" t="n"/>
       <c r="D60" s="11" t="n">
-        <v>4884.644</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="13">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C61" s="20" t="n"/>
       <c r="D61" s="11" t="n">
-        <v>5388.291</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="13">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C62" s="20" t="n"/>
       <c r="D62" s="11" t="n">
-        <v>5707.184</v>
+        <v>10370</v>
       </c>
     </row>
     <row r="65" ht="33.75" customHeight="1" s="13">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C68" s="20" t="n"/>
       <c r="D68" s="11" t="n">
-        <v>607.671</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="69" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C69" s="20" t="n"/>
       <c r="D69" s="11" t="n">
-        <v>625.134</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="70" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C70" s="20" t="n"/>
       <c r="D70" s="11" t="n">
-        <v>707.388</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="71" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C71" s="20" t="n"/>
       <c r="D71" s="11" t="n">
-        <v>824.064</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" s="13">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C72" s="20" t="n"/>
       <c r="D72" s="11" t="n">
-        <v>953.141</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" s="13">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C73" s="20" t="n"/>
       <c r="D73" s="11" t="n">
-        <v>1104.993</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="1" s="13">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C74" s="20" t="n"/>
       <c r="D74" s="11" t="n">
-        <v>1237.612</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="13">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C75" s="20" t="n"/>
       <c r="D75" s="11" t="n">
-        <v>1311.008</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="13">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C76" s="20" t="n"/>
       <c r="D76" s="11" t="n">
-        <v>1543.85</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="13">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C77" s="20" t="n"/>
       <c r="D77" s="11" t="n">
-        <v>1789.351</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1" s="13">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C78" s="20" t="n"/>
       <c r="D78" s="11" t="n">
-        <v>1993.592</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="13">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C79" s="20" t="n"/>
       <c r="D79" s="11" t="n">
-        <v>2234.28</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="13">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C80" s="20" t="n"/>
       <c r="D80" s="11" t="n">
-        <v>2492.942</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" s="13">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C81" s="20" t="n"/>
       <c r="D81" s="11" t="n">
-        <v>2640.49</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="82" ht="21" customHeight="1" s="13">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C82" s="20" t="n"/>
       <c r="D82" s="11" t="n">
-        <v>2862.453</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" s="13">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C83" s="20" t="n"/>
       <c r="D83" s="11" t="n">
-        <v>3125.665</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="86" ht="33.75" customHeight="1" s="13">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C89" s="20" t="n"/>
       <c r="D89" s="11" t="n">
-        <v>259.878</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" s="13">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C90" s="20" t="n"/>
       <c r="D90" s="11" t="n">
-        <v>312.062</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="13">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C91" s="20" t="n"/>
       <c r="D91" s="11" t="n">
-        <v>337.37</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" s="13">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C92" s="20" t="n"/>
       <c r="D92" s="11" t="n">
-        <v>418.61</v>
+        <v>765</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" s="13">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="C93" s="20" t="n"/>
       <c r="D93" s="11" t="n">
-        <v>456.827</v>
+        <v>951</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" s="13">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C94" s="20" t="n"/>
       <c r="D94" s="11" t="n">
-        <v>492.008</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" s="13">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C95" s="20" t="n"/>
       <c r="D95" s="11" t="n">
-        <v>539.842</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" s="13">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C96" s="20" t="n"/>
       <c r="D96" s="11" t="n">
-        <v>688.913</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1" s="13">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C97" s="20" t="n"/>
       <c r="D97" s="11" t="n">
-        <v>749.146</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="98" ht="19.5" customHeight="1" s="13">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C98" s="20" t="n"/>
       <c r="D98" s="11" t="n">
-        <v>878.223</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="99" ht="17.25" customHeight="1" s="13">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C99" s="20" t="n"/>
       <c r="D99" s="11" t="n">
-        <v>992.114</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="1" s="13">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C100" s="20" t="n"/>
       <c r="D100" s="11" t="n">
-        <v>1068.042</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="103" ht="33.75" customHeight="1" s="13">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C106" s="20" t="n"/>
       <c r="D106" s="11" t="n">
-        <v>2406.888</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="107" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C107" s="20" t="n"/>
       <c r="D107" s="11" t="n">
-        <v>2558.744</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="108" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C108" s="20" t="n"/>
       <c r="D108" s="11" t="n">
-        <v>2708.068</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="109" ht="18" customFormat="1" customHeight="1" s="7">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C109" s="20" t="n"/>
       <c r="D109" s="11" t="n">
-        <v>2961.16</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" s="13">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C110" s="20" t="n"/>
       <c r="D110" s="11" t="n">
-        <v>2978.875</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" s="13">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C111" s="20" t="n"/>
       <c r="D111" s="11" t="n">
-        <v>3510.364</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="112" ht="18" customHeight="1" s="13">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C112" s="20" t="n"/>
       <c r="D112" s="11" t="n">
-        <v>4155.742</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="1" s="13">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C113" s="20" t="n"/>
       <c r="D113" s="11" t="n">
-        <v>4606.245</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1" s="13">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C114" s="20" t="n"/>
       <c r="D114" s="11" t="n">
-        <v>5036.501</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" s="13">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C115" s="20" t="n"/>
       <c r="D115" s="11" t="n">
-        <v>5560.397</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" s="13">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C116" s="20" t="n"/>
       <c r="D116" s="11" t="n">
-        <v>6226.021</v>
+        <v>12580</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" s="13">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C117" s="20" t="n"/>
       <c r="D117" s="11" t="n">
-        <v>6577.82</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="118" ht="19.5" customHeight="1" s="13">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C118" s="20" t="n"/>
       <c r="D118" s="11" t="n">
-        <v>7339.619</v>
+        <v>14550</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" s="13">
@@ -2094,89 +2094,89 @@
       </c>
       <c r="C119" s="20" t="n"/>
       <c r="D119" s="11" t="n">
-        <v>7782.528</v>
+        <v>15820</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
     <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B95:C95"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B97:C97"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
